--- a/medicine/Pharmacie/Enrique_Moles/Enrique_Moles.xlsx
+++ b/medicine/Pharmacie/Enrique_Moles/Enrique_Moles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enrique Moles y Ormella, né en 1883 à Gràcia (alors commune indépendante de la périphérie de Barcelone) et mort en 1953 à Madrid, est un pharmacologue, chimiste et physicien espagnol. Il est considéré comme le plus éminent des chimistes espagnols d’avant la guerre civile.
 </t>
@@ -511,7 +523,9 @@
           <t>Les études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la pharmacie à Barcelone, puis à Madrid où il obtient en 1906 le doctorat en pharmacie. L'année suivante, il est nommé professeur auxiliaire libre à l’université de Barcelone. Il traduit des articles sur la bactériologie, il travaille à la mise au point de plusieurs médicaments et, en 1909, en collaboration avec Antonio Novellas (es), il publie un Manuel de pharmacologie, de thérapeutique et d’analyse de chimie pharmaceutique. Entretemps, grâce à une bourse du Comité pour le développement des études (es) (Junta para Ampliación de Estudios (JAE)), il est parti pour l'Allemagne. Il y séjourne jusqu'en 1911, complétant sa formation à l'université Louis-et-Maximilien de Munich, puis étudiant la chimie à Leipzig avec Wilhelm Ostwald. Plus tard, en 1916, il se perfectionne en chimie physique à Genève où, sous la direction de Philippe Guye, il est reçu docteur en physique. Enfin, en 1918, il retourne à Leipzig et y obtient le doctorat en chimie, titre qu'il redouble à Madrid en 1922.
 </t>
@@ -542,10 +556,12 @@
           <t>La carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1927, Moles accède à la chaire de chimie inorganique de la même université, chaire qu’il conservera jusqu’en 1936. En 1934, élu à l’Académie des sciences, il prononce un discours de réception « sur l’Espagne scientifique entre 1785 et 1825 », où il se livre à une analyse magistrale de l’évolution de la science espagnole à partir du début du XIXe siècle[1],[2]. Il est nommé chef du service de chimie physique du laboratoire de Blas Cabrera, l’initiateur en Espagne de l’étude de la chimie physique. Il réalise un travail de recherche considérable avec María Teresa Toral, qui sera condamnée par la dictature franquiste[3].
-En 1936, Moles est nommé à la Direction générale des poudres et explosifs du gouvernement de la IIe République. Quand la guerre éclate, il se réfugie en France, à Paris. Revenu d’exil en 1942 « sur la foi de promesses fallacieuses »[4], il est arrêté par le gouvernement franquiste. Sa vie est sérieusement menacée. Sur l’intervention de son collègue français Ernest Fourneau, il est cependant élargi et placé en liberté surveillée[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1927, Moles accède à la chaire de chimie inorganique de la même université, chaire qu’il conservera jusqu’en 1936. En 1934, élu à l’Académie des sciences, il prononce un discours de réception « sur l’Espagne scientifique entre 1785 et 1825 », où il se livre à une analyse magistrale de l’évolution de la science espagnole à partir du début du XIXe siècle,. Il est nommé chef du service de chimie physique du laboratoire de Blas Cabrera, l’initiateur en Espagne de l’étude de la chimie physique. Il réalise un travail de recherche considérable avec María Teresa Toral, qui sera condamnée par la dictature franquiste.
+En 1936, Moles est nommé à la Direction générale des poudres et explosifs du gouvernement de la IIe République. Quand la guerre éclate, il se réfugie en France, à Paris. Revenu d’exil en 1942 « sur la foi de promesses fallacieuses », il est arrêté par le gouvernement franquiste. Sa vie est sérieusement menacée. Sur l’intervention de son collègue français Ernest Fourneau, il est cependant élargi et placé en liberté surveillée,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>L'œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moles est l’auteur de deux cent soixante-deux publications scientifiques, dont beaucoup sont parues dans les Annales de la Société espagnole de physique et de chimie. Il a poursuivi ses recherches dans plusieurs domaines, parmi lesquels il faut compter la détermination des volumes moléculaires. Mais ses travaux, effectués pour une part en collaboration avec Blas Cabrera, ont principalement porté sur la détermination des masses atomiques – dont celles du fluor et du brome – par la méthode de la densité limite des gaz[7]. Ces recherches ont été récompensées par les prix Cannizzaro, Van' t Hoff et Solvay. Moles, d’autre part, a organisé d'importantes rencontres scientifiques, comme le IXe Congrès international de chimie pure et appliquée, tenu à Madrid des 5 au 11 avril 1934, et il a assuré le secrétariat de la Commission des poids atomiques de l’Union internationale de chimie pure et appliquée.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moles est l’auteur de deux cent soixante-deux publications scientifiques, dont beaucoup sont parues dans les Annales de la Société espagnole de physique et de chimie. Il a poursuivi ses recherches dans plusieurs domaines, parmi lesquels il faut compter la détermination des volumes moléculaires. Mais ses travaux, effectués pour une part en collaboration avec Blas Cabrera, ont principalement porté sur la détermination des masses atomiques – dont celles du fluor et du brome – par la méthode de la densité limite des gaz. Ces recherches ont été récompensées par les prix Cannizzaro, Van' t Hoff et Solvay. Moles, d’autre part, a organisé d'importantes rencontres scientifiques, comme le IXe Congrès international de chimie pure et appliquée, tenu à Madrid des 5 au 11 avril 1934, et il a assuré le secrétariat de la Commission des poids atomiques de l’Union internationale de chimie pure et appliquée.
 Moles a dispensé un enseignement remarquable. Il a formé les nouvelles générations de chimistes espagnols. Auguste Pérez-Vitoria a été l'un de ses nombreux élèves.
 Moles était membre de plusieurs académies scientifiques étrangères.
 </t>
@@ -607,7 +625,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Traductions (de l'allemand)
 1911 : (es) Werner Mecklenburg (trad. Enrique Moles, préf. José R. Carracido), Fundamentos experimentales de la atomistica [« Die experimentelle Grundlegung der Atomistik »], Madrid, Adrián Romo, 1911.
